--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\_Programming\Python\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E751BCE-5F6F-4895-A5CC-322BC8694459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D7EF96-DA6D-416E-9A01-9EADDF05F07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6165" yWindow="3165" windowWidth="19965" windowHeight="11145" xr2:uid="{1E6380F2-32CF-4CDB-84C9-9C534D2AC723}"/>
   </bookViews>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15.75"/>
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -475,10 +475,10 @@
         <v>44259</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -492,10 +492,10 @@
         <v>44260</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -509,10 +509,10 @@
         <v>44261</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -526,10 +526,10 @@
         <v>44262</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -543,10 +543,10 @@
         <v>44263</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -560,10 +560,10 @@
         <v>44264</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -577,10 +577,10 @@
         <v>44265</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -594,10 +594,10 @@
         <v>44266</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>150</v>
@@ -611,10 +611,10 @@
         <v>44267</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -628,10 +628,10 @@
         <v>44268</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>200</v>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\_Programming\Python\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D7EF96-DA6D-416E-9A01-9EADDF05F07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A235C9-3377-4944-83B6-F4039803A4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6165" yWindow="3165" windowWidth="19965" windowHeight="11145" xr2:uid="{1E6380F2-32CF-4CDB-84C9-9C534D2AC723}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB26696-51AE-4700-8DC3-84BD0D6DD260}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15.75"/>
@@ -641,10 +653,89 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\_Programming\Python\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A235C9-3377-4944-83B6-F4039803A4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B487AC1-6194-4FA4-88BB-94DF711DAEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6165" yWindow="3165" windowWidth="19965" windowHeight="11145" xr2:uid="{1E6380F2-32CF-4CDB-84C9-9C534D2AC723}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15.75"/>
@@ -649,7 +649,7 @@
         <v>200</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
